--- a/backend_sp_db/Imports/April_21.xlsx
+++ b/backend_sp_db/Imports/April_21.xlsx
@@ -1,21 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26327"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\stzjwerle\Desktop\SP Project\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\ZHAW\Sc_Programming\Project\Github\sp_project_janosh_marius\backend_sp_db\Imports\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2C06C5BF-0D46-4702-BB0F-8EDD2C45B270}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="11745"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="17640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Test1" sheetId="1" r:id="rId1"/>
+    <sheet name="Test2" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Test1!$A$1:$N$575</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Test2!$A$1:$N$575</definedName>
   </definedNames>
   <calcPr calcId="0"/>
 </workbook>
@@ -351,7 +352,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -1134,7 +1135,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:N575"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -24236,7 +24237,7 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:N575"/>
+  <autoFilter ref="A1:N575" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
 </worksheet>
 </file>